--- a/Bug.xlsx
+++ b/Bug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Actor</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>Quoc</t>
+  </si>
+  <si>
+    <t>Sau khi cancel, reactive…. Chua filter dung trang thai do</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Phan trang order manager….</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -364,28 +379,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
